--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1115151.463686907</v>
+        <v>1132768.913550985</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673262</v>
+        <v>4171427.157673263</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9940899.007002598</v>
+        <v>9940899.007002596</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>240.6625579810901</v>
       </c>
       <c r="G2" t="n">
-        <v>376.2085026084473</v>
+        <v>413.1912779163984</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>17.23514392200988</v>
+        <v>17.23514392200983</v>
       </c>
       <c r="S2" t="n">
-        <v>160.9051839800344</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.8529351706618</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1767361399376</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.2137866807357</v>
       </c>
       <c r="H3" t="n">
-        <v>11.72277912621969</v>
+        <v>101.3246261557512</v>
       </c>
       <c r="I3" t="n">
-        <v>50.50021053813175</v>
+        <v>50.50021053813174</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>30.01544507406494</v>
+        <v>30.0154450740649</v>
       </c>
       <c r="S3" t="n">
         <v>150.6989228876907</v>
@@ -797,7 +797,7 @@
         <v>225.8670577071278</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>143.1987401198946</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -819,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>26.39722440815684</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.852981398648183</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>207.5107385676107</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>239.2938221186663</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>171.3174744131843</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>59.56838371228627</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>91.85186523226187</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>95.99319319707857</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -986,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>74.52922194059541</v>
       </c>
       <c r="G6" t="n">
         <v>136.0669836643703</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>111.5266024655407</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>112.3845446528137</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>251.8617597136141</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>118.4535900056852</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542836</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>120.3332554667399</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>232.0435653572868</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>269.6425323314746</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>137.9761097469143</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>209.5675193320712</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>57.92556443677427</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>10.89095412311142</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1779,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>54.44520905999251</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>192.758541168238</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>113.1061620820484</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>286.8517409876646</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>159.9641156578011</v>
+        <v>31.52072535629967</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,22 +2086,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>49.49274882670105</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>271.8036819298785</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>201.6711926152593</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>212.3540566423247</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2335,10 +2335,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>177.6639791994886</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>138.4290882471217</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>165.802206438945</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.0910461995135</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>239.1296984349976</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>269.7836269118518</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>87.26243192509661</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,7 +2769,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>270.0697021486467</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5.732180395783987</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>131.9809553984406</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>132.5373350448693</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>15.32691334752898</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>152.1189724801571</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>49.49274882670021</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>94.31414135199483</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>271.0334203334709</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>256.2534865485207</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>242.3977510333377</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>114.1627038799792</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1043346164863</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,13 +3511,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>38.47978089371789</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>170.4803392703461</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>134.2162827771179</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>161.5079355018873</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>112.5068310321656</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>378.4439893217082</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>11.88284096151545</v>
+        <v>130.1364559017973</v>
       </c>
     </row>
     <row r="44">
@@ -3979,22 +3979,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>253.3848746885032</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>1.744699627127193</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4191,7 +4191,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>102.8228810500189</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>215.0276763784382</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>842.2412798509918</v>
+        <v>1097.493459264721</v>
       </c>
       <c r="C2" t="n">
-        <v>842.2412798509918</v>
+        <v>1097.493459264721</v>
       </c>
       <c r="D2" t="n">
-        <v>842.2412798509918</v>
+        <v>1097.493459264721</v>
       </c>
       <c r="E2" t="n">
-        <v>842.2412798509918</v>
+        <v>711.7052066664764</v>
       </c>
       <c r="F2" t="n">
-        <v>431.2553750613842</v>
+        <v>468.6117137562844</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K2" t="n">
-        <v>420.161515622392</v>
+        <v>310.8101954635111</v>
       </c>
       <c r="L2" t="n">
-        <v>930.1094862284049</v>
+        <v>820.7581660695242</v>
       </c>
       <c r="M2" t="n">
-        <v>1514.131405455305</v>
+        <v>1404.780085296425</v>
       </c>
       <c r="N2" t="n">
-        <v>2092.971412365603</v>
+        <v>1983.620092206722</v>
       </c>
       <c r="O2" t="n">
         <v>2485.01465893134</v>
@@ -4357,25 +4357,25 @@
         <v>2544.930092115297</v>
       </c>
       <c r="S2" t="n">
-        <v>2382.399603246575</v>
+        <v>2544.930092115297</v>
       </c>
       <c r="T2" t="n">
-        <v>2166.386537417624</v>
+        <v>2544.930092115297</v>
       </c>
       <c r="U2" t="n">
-        <v>1912.672662528798</v>
+        <v>2544.930092115297</v>
       </c>
       <c r="V2" t="n">
-        <v>1581.609775185228</v>
+        <v>2213.867204771726</v>
       </c>
       <c r="W2" t="n">
-        <v>1228.841119915113</v>
+        <v>1861.098549501612</v>
       </c>
       <c r="X2" t="n">
-        <v>1228.841119915113</v>
+        <v>1487.632791240532</v>
       </c>
       <c r="Y2" t="n">
-        <v>1228.841119915113</v>
+        <v>1097.493459264721</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>880.8474267163126</v>
+        <v>971.3543429077587</v>
       </c>
       <c r="C3" t="n">
-        <v>706.3943974351856</v>
+        <v>796.9013136266317</v>
       </c>
       <c r="D3" t="n">
-        <v>557.4599877739344</v>
+        <v>647.9669039653804</v>
       </c>
       <c r="E3" t="n">
-        <v>398.2225327684789</v>
+        <v>488.7294489599249</v>
       </c>
       <c r="F3" t="n">
-        <v>251.6879747953638</v>
+        <v>342.1948909868098</v>
       </c>
       <c r="G3" t="n">
-        <v>114.0982912794692</v>
+        <v>204.6052074709152</v>
       </c>
       <c r="H3" t="n">
         <v>102.2571002428837</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K3" t="n">
-        <v>95.38619313053044</v>
+        <v>95.38619313053053</v>
       </c>
       <c r="L3" t="n">
-        <v>568.1915554005229</v>
+        <v>568.191555400523</v>
       </c>
       <c r="M3" t="n">
         <v>1171.912334021689</v>
       </c>
       <c r="N3" t="n">
-        <v>1806.091317800727</v>
+        <v>1806.091317800728</v>
       </c>
       <c r="O3" t="n">
         <v>2320.948436217988</v>
       </c>
       <c r="P3" t="n">
-        <v>2401.885455722256</v>
+        <v>2558.154270699999</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2532.02069701221</v>
+        <v>2532.020697012211</v>
       </c>
       <c r="S3" t="n">
-        <v>2379.79956278222</v>
+        <v>2379.799562782221</v>
       </c>
       <c r="T3" t="n">
         <v>2182.212570805325</v>
       </c>
       <c r="U3" t="n">
-        <v>1954.064027666812</v>
+        <v>1954.064027666813</v>
       </c>
       <c r="V3" t="n">
-        <v>1718.911919435069</v>
+        <v>1809.418835626515</v>
       </c>
       <c r="W3" t="n">
-        <v>1464.674562706867</v>
+        <v>1555.181478898313</v>
       </c>
       <c r="X3" t="n">
-        <v>1256.823062501335</v>
+        <v>1347.329978692781</v>
       </c>
       <c r="Y3" t="n">
-        <v>1049.062763736381</v>
+        <v>1139.569679927827</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.91064960654538</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C4" t="n">
-        <v>77.91064960654538</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>77.91064960654538</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>77.91064960654538</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>77.91064960654538</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>77.91064960654538</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>77.91064960654538</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>77.91064960654538</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K4" t="n">
-        <v>138.1386621581655</v>
+        <v>138.1386621581656</v>
       </c>
       <c r="L4" t="n">
-        <v>304.8567816908237</v>
+        <v>304.8567816908238</v>
       </c>
       <c r="M4" t="n">
-        <v>491.0267862272816</v>
+        <v>491.0267862272817</v>
       </c>
       <c r="N4" t="n">
-        <v>678.2047005881359</v>
+        <v>678.204700588136</v>
       </c>
       <c r="O4" t="n">
-        <v>835.0775046092311</v>
+        <v>835.0775046092313</v>
       </c>
       <c r="P4" t="n">
-        <v>945.7886068347269</v>
+        <v>945.788606834727</v>
       </c>
       <c r="Q4" t="n">
-        <v>938.8664034017489</v>
+        <v>945.788606834727</v>
       </c>
       <c r="R4" t="n">
-        <v>938.8664034017489</v>
+        <v>945.788606834727</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2595967677987</v>
+        <v>945.788606834727</v>
       </c>
       <c r="T4" t="n">
-        <v>729.2595967677987</v>
+        <v>945.788606834727</v>
       </c>
       <c r="U4" t="n">
-        <v>729.2595967677987</v>
+        <v>945.788606834727</v>
       </c>
       <c r="V4" t="n">
-        <v>487.5486653348024</v>
+        <v>945.788606834727</v>
       </c>
       <c r="W4" t="n">
-        <v>487.5486653348024</v>
+        <v>945.788606834727</v>
       </c>
       <c r="X4" t="n">
-        <v>259.5591144367851</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y4" t="n">
-        <v>259.5591144367851</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1317.236558948563</v>
+        <v>2172.199996424344</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.236558948563</v>
+        <v>1803.237479483932</v>
       </c>
       <c r="D5" t="n">
-        <v>1317.236558948563</v>
+        <v>1444.971780877182</v>
       </c>
       <c r="E5" t="n">
-        <v>1317.236558948563</v>
+        <v>1059.183528278937</v>
       </c>
       <c r="F5" t="n">
-        <v>906.2506541589553</v>
+        <v>648.1976234893298</v>
       </c>
       <c r="G5" t="n">
-        <v>489.1628723953828</v>
+        <v>231.1098417257572</v>
       </c>
       <c r="H5" t="n">
         <v>170.9397571678923</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>239.8866855817394</v>
+        <v>72.4810365613864</v>
       </c>
       <c r="K5" t="n">
-        <v>643.3537986017849</v>
+        <v>475.9481495814319</v>
       </c>
       <c r="L5" t="n">
-        <v>782.6824544430381</v>
+        <v>1028.761407827631</v>
       </c>
       <c r="M5" t="n">
-        <v>1414.40026542635</v>
+        <v>1215.460820653039</v>
       </c>
       <c r="N5" t="n">
-        <v>1608.734478318332</v>
+        <v>1550.878957272188</v>
       </c>
       <c r="O5" t="n">
-        <v>1887.84832128596</v>
+        <v>2098.040162039266</v>
       </c>
       <c r="P5" t="n">
-        <v>2317.163367625254</v>
+        <v>2527.35520837856</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400155</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2469.559666549385</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2254.759804817097</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2001.068101562248</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1670.005214218677</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>1317.236558948563</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>1317.236558948563</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y5" t="n">
-        <v>1317.236558948563</v>
+        <v>2172.199996424344</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.6684709946088</v>
+        <v>893.4159553857316</v>
       </c>
       <c r="C6" t="n">
-        <v>790.2154417134818</v>
+        <v>718.9629261046047</v>
       </c>
       <c r="D6" t="n">
-        <v>641.2810320522306</v>
+        <v>570.0285164433534</v>
       </c>
       <c r="E6" t="n">
-        <v>482.0435770467751</v>
+        <v>410.7910614378979</v>
       </c>
       <c r="F6" t="n">
         <v>335.5090190736601</v>
@@ -4640,10 +4640,10 @@
         <v>198.067621432882</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768661</v>
+        <v>97.15164357768663</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>169.9060384248988</v>
@@ -4664,7 +4664,7 @@
         <v>1931.28606935682</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339687</v>
+        <v>2355.253837837657</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4676,10 +4676,10 @@
         <v>2391.760639664977</v>
       </c>
       <c r="T6" t="n">
-        <v>2194.771343825064</v>
+        <v>2194.771343825065</v>
       </c>
       <c r="U6" t="n">
-        <v>1966.63255633623</v>
+        <v>1966.632556336231</v>
       </c>
       <c r="V6" t="n">
         <v>1731.480448104488</v>
@@ -4688,10 +4688,10 @@
         <v>1477.243091376286</v>
       </c>
       <c r="X6" t="n">
-        <v>1269.391591170753</v>
+        <v>1269.391591170754</v>
       </c>
       <c r="Y6" t="n">
-        <v>1061.631292405799</v>
+        <v>1061.6312924058</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>648.740424053578</v>
+        <v>682.9772377479118</v>
       </c>
       <c r="C7" t="n">
-        <v>479.8042411256711</v>
+        <v>514.0410548200049</v>
       </c>
       <c r="D7" t="n">
-        <v>329.6876017133353</v>
+        <v>363.9244154076692</v>
       </c>
       <c r="E7" t="n">
-        <v>181.7745081309422</v>
+        <v>216.0113218252761</v>
       </c>
       <c r="F7" t="n">
-        <v>181.7745081309422</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="G7" t="n">
         <v>69.12137432736571</v>
@@ -4725,7 +4725,7 @@
         <v>69.12137432736571</v>
       </c>
       <c r="J7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4755,22 +4755,22 @@
         <v>1051.181468027348</v>
       </c>
       <c r="T7" t="n">
-        <v>1051.181468027348</v>
+        <v>937.6617259537986</v>
       </c>
       <c r="U7" t="n">
-        <v>1051.181468027348</v>
+        <v>937.6617259537986</v>
       </c>
       <c r="V7" t="n">
-        <v>1051.181468027348</v>
+        <v>682.9772377479118</v>
       </c>
       <c r="W7" t="n">
-        <v>1051.181468027348</v>
+        <v>682.9772377479118</v>
       </c>
       <c r="X7" t="n">
-        <v>1051.181468027348</v>
+        <v>682.9772377479118</v>
       </c>
       <c r="Y7" t="n">
-        <v>830.3888888838177</v>
+        <v>682.9772377479118</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1634.158487398107</v>
+        <v>728.3028554854573</v>
       </c>
       <c r="C8" t="n">
-        <v>1634.158487398107</v>
+        <v>728.3028554854573</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398107</v>
+        <v>728.3028554854573</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>728.3028554854573</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>317.3169506958497</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>305.6526044605426</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2317.990030011792</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2317.990030011792</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1986.927142668221</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>1634.158487398107</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>1634.158487398107</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y8" t="n">
-        <v>1634.158487398107</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180662</v>
+        <v>507.241398742976</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495379</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105703</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1800.470091281865</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
-        <v>2362.9309660677</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657496</v>
+        <v>172.7955294637</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378427</v>
+        <v>172.7955294637</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255069</v>
+        <v>172.7955294637</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431138</v>
+        <v>172.7955294637</v>
       </c>
       <c r="F10" t="n">
-        <v>102.7424917452035</v>
+        <v>172.7955294637</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>172.7955294637</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>575.2365734374698</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959893</v>
+        <v>354.4439942939397</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1881.708680670286</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="C11" t="n">
-        <v>1512.746163729874</v>
+        <v>1908.990616856006</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>1550.724918249256</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>1164.936665651011</v>
       </c>
       <c r="F11" t="n">
-        <v>481.584566587187</v>
+        <v>753.9507608614038</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218345</v>
+        <v>338.8783107064002</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
@@ -5059,34 +5059,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609172</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V11" t="n">
-        <v>2994.542934265602</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W11" t="n">
-        <v>2641.774278995487</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X11" t="n">
-        <v>2268.308520734407</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y11" t="n">
-        <v>2268.308520734407</v>
+        <v>2277.953133796418</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>498.989058537402</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C13" t="n">
-        <v>498.989058537402</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D13" t="n">
-        <v>498.989058537402</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E13" t="n">
-        <v>359.6192507122361</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F13" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5226,25 +5226,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.60866391532</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484846</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
         <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046023</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W13" t="n">
-        <v>680.6375233676417</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X13" t="n">
-        <v>680.6375233676417</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y13" t="n">
-        <v>680.6375233676417</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>921.7704558796274</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C14" t="n">
-        <v>552.8079389392158</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D14" t="n">
-        <v>552.8079389392158</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E14" t="n">
-        <v>167.0196863409715</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F14" t="n">
-        <v>167.0196863409715</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>167.0196863409715</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912087</v>
@@ -5290,40 +5290,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450755</v>
+        <v>2744.805965033606</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180641</v>
+        <v>2744.805965033606</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.509627919561</v>
+        <v>2371.340206772526</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943749</v>
+        <v>1981.200874796715</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>657.6489837069649</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C16" t="n">
-        <v>657.6489837069649</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D16" t="n">
-        <v>507.5323442946292</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E16" t="n">
-        <v>359.6192507122361</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>212.7293032143257</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5463,25 +5463,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1872.299387421834</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1650.53277199136</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1650.53277199136</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V16" t="n">
-        <v>1395.848283785473</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W16" t="n">
-        <v>1106.431113748512</v>
+        <v>1224.424878447885</v>
       </c>
       <c r="X16" t="n">
-        <v>878.4415628504951</v>
+        <v>1224.424878447885</v>
       </c>
       <c r="Y16" t="n">
-        <v>657.6489837069649</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1734.047335491682</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C17" t="n">
-        <v>1365.084818551271</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>1006.81911994452</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
         <v>892.5704713767946</v>
@@ -5515,16 +5515,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060172</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V17" t="n">
-        <v>2884.252265792696</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W17" t="n">
-        <v>2884.252265792696</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="X17" t="n">
-        <v>2510.786507531616</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y17" t="n">
-        <v>2120.647175555804</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="18">
@@ -5585,10 +5585,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
@@ -5597,25 +5597,25 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>551.0642295677645</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C19" t="n">
-        <v>382.1280466398576</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D19" t="n">
-        <v>382.1280466398576</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E19" t="n">
-        <v>234.2149530574645</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
         <v>234.2149530574645</v>
@@ -5676,16 +5676,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V19" t="n">
-        <v>1450.843444452132</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W19" t="n">
-        <v>1161.426274415172</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X19" t="n">
-        <v>933.4367235171544</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="Y19" t="n">
-        <v>712.6441443736243</v>
+        <v>879.9099329995254</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1519.109083729354</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C20" t="n">
-        <v>1150.146566788942</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D20" t="n">
-        <v>791.8808681821918</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>406.0926155839475</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>406.0926155839475</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052369</v>
@@ -5788,16 +5788,16 @@
         <v>3072.075344883008</v>
       </c>
       <c r="V20" t="n">
-        <v>3022.082669300481</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W20" t="n">
-        <v>2669.314014030367</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X20" t="n">
-        <v>2295.848255769287</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y20" t="n">
-        <v>1905.708923793476</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="21">
@@ -5822,10 +5822,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
@@ -5834,25 +5834,25 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>549.3683227675136</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C22" t="n">
-        <v>380.4321398396067</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D22" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E22" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F22" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G22" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
         <v>66.51211643218343</v>
@@ -5913,16 +5913,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T22" t="n">
-        <v>1723.586272719544</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U22" t="n">
-        <v>1434.483405845188</v>
+        <v>1209.512544128914</v>
       </c>
       <c r="V22" t="n">
-        <v>1179.798917639301</v>
+        <v>954.8280559230273</v>
       </c>
       <c r="W22" t="n">
-        <v>1179.798917639301</v>
+        <v>665.4108858860666</v>
       </c>
       <c r="X22" t="n">
-        <v>951.8093667412835</v>
+        <v>437.4213349880492</v>
       </c>
       <c r="Y22" t="n">
-        <v>731.0167875977534</v>
+        <v>216.6287558445192</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1986.901740067214</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C23" t="n">
-        <v>1617.939223126803</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D23" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218343</v>
@@ -5992,13 +5992,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060172</v>
@@ -6016,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>2866.09759726723</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V23" t="n">
-        <v>2866.09759726723</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W23" t="n">
-        <v>2513.328941997116</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="X23" t="n">
-        <v>2513.328941997116</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y23" t="n">
-        <v>2373.501580131336</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>363.5187033424295</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C25" t="n">
-        <v>363.5187033424295</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D25" t="n">
-        <v>213.4020639300938</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E25" t="n">
         <v>213.4020639300938</v>
@@ -6174,25 +6174,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1759.817571887538</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>1538.050956457064</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U25" t="n">
-        <v>1538.050956457064</v>
+        <v>1418.567279931238</v>
       </c>
       <c r="V25" t="n">
-        <v>1283.366468251177</v>
+        <v>1418.567279931238</v>
       </c>
       <c r="W25" t="n">
-        <v>993.9492982142167</v>
+        <v>1129.150109894277</v>
       </c>
       <c r="X25" t="n">
-        <v>765.9597473161994</v>
+        <v>901.1605589962596</v>
       </c>
       <c r="Y25" t="n">
-        <v>545.1671681726692</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1571.829289912211</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C26" t="n">
-        <v>1202.866772971799</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D26" t="n">
-        <v>1202.866772971799</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E26" t="n">
-        <v>817.078520373555</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0926155839475</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
         <v>108.5090151927147</v>
@@ -6253,25 +6253,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V26" t="n">
-        <v>2994.5429342656</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W26" t="n">
-        <v>2722.034220213224</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X26" t="n">
-        <v>2348.568461952144</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y26" t="n">
-        <v>1958.429129976333</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.51211643218342</v>
+        <v>470.2719172712683</v>
       </c>
       <c r="C28" t="n">
-        <v>66.51211643218342</v>
+        <v>470.2719172712683</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218342</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G28" t="n">
         <v>66.51211643218342</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T28" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U28" t="n">
-        <v>1241.044369546818</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V28" t="n">
-        <v>986.3598813409312</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W28" t="n">
-        <v>696.9427113039706</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X28" t="n">
-        <v>468.9531604059532</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y28" t="n">
-        <v>248.1605812624231</v>
+        <v>651.920382101508</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1689.318139675982</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C29" t="n">
-        <v>1320.35562273557</v>
+        <v>869.0763550278978</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.35562273557</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E29" t="n">
-        <v>934.5673701373257</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
@@ -6496,19 +6496,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V29" t="n">
-        <v>3192.291725247109</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W29" t="n">
-        <v>2839.523069976995</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X29" t="n">
-        <v>2466.057311715915</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y29" t="n">
-        <v>2075.917979740103</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="30">
@@ -6533,16 +6533,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>645.3078929297411</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C31" t="n">
         <v>511.4317969248226</v>
@@ -6609,16 +6609,16 @@
         <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1821.982360191951</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088493</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="U31" t="n">
-        <v>1638.191681214136</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="V31" t="n">
-        <v>1383.507193008249</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W31" t="n">
-        <v>1094.090022971289</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X31" t="n">
-        <v>866.1004720732712</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y31" t="n">
-        <v>645.3078929297411</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1832.276849100055</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="C32" t="n">
-        <v>1678.62132134232</v>
+        <v>1200.139242371468</v>
       </c>
       <c r="D32" t="n">
-        <v>1320.35562273557</v>
+        <v>841.8735437647172</v>
       </c>
       <c r="E32" t="n">
-        <v>934.5673701373257</v>
+        <v>456.0852911664729</v>
       </c>
       <c r="F32" t="n">
-        <v>523.5814653477182</v>
+        <v>456.0852911664729</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>2961.784676410103</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V32" t="n">
-        <v>2961.784676410103</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W32" t="n">
-        <v>2609.016021139988</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X32" t="n">
-        <v>2609.016021139988</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y32" t="n">
-        <v>2218.876689164177</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="33">
@@ -6755,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>478.9911633238872</v>
+        <v>550.0410834832817</v>
       </c>
       <c r="C34" t="n">
-        <v>310.0549803959803</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D34" t="n">
-        <v>310.0549803959803</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E34" t="n">
-        <v>310.0549803959803</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6891,19 +6891,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U34" t="n">
-        <v>1653.523416438522</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V34" t="n">
-        <v>1398.838928232635</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W34" t="n">
-        <v>1109.421758195675</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X34" t="n">
-        <v>881.4322072976571</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y34" t="n">
-        <v>660.639628154127</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1246.723135529484</v>
+        <v>1891.353293732295</v>
       </c>
       <c r="C35" t="n">
-        <v>877.7606185890727</v>
+        <v>1522.390776791883</v>
       </c>
       <c r="D35" t="n">
-        <v>519.4949199823222</v>
+        <v>1164.125078185133</v>
       </c>
       <c r="E35" t="n">
-        <v>519.4949199823222</v>
+        <v>778.3368255868886</v>
       </c>
       <c r="F35" t="n">
-        <v>108.5090151927147</v>
+        <v>367.350920797281</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>367.350920797281</v>
       </c>
       <c r="H35" t="n">
         <v>108.5090151927147</v>
@@ -6937,10 +6937,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6964,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>3080.759608444183</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V35" t="n">
-        <v>2749.696721100612</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W35" t="n">
-        <v>2396.928065830498</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X35" t="n">
-        <v>2023.462307569418</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y35" t="n">
-        <v>1633.322975593606</v>
+        <v>2277.953133796417</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
         <v>176.0213023927779</v>
@@ -7013,25 +7013,25 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
         <v>2407.411984886741</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>532.4548862703364</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="C37" t="n">
-        <v>363.5187033424295</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="D37" t="n">
-        <v>213.4020639300938</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
         <v>66.51211643218342</v>
@@ -7125,22 +7125,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U37" t="n">
-        <v>1706.987139384971</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V37" t="n">
-        <v>1452.302651179084</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W37" t="n">
-        <v>1162.885481142124</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X37" t="n">
-        <v>934.8959302441062</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y37" t="n">
-        <v>714.1033511005761</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1636.597933493125</v>
+        <v>1285.591601078694</v>
       </c>
       <c r="C38" t="n">
-        <v>1267.635416552713</v>
+        <v>916.6290841382827</v>
       </c>
       <c r="D38" t="n">
-        <v>909.3697179459625</v>
+        <v>558.3633855315322</v>
       </c>
       <c r="E38" t="n">
-        <v>523.5814653477182</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G38" t="n">
         <v>108.5090151927147</v>
@@ -7183,7 +7183,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7207,19 +7207,19 @@
         <v>3119.628073993393</v>
       </c>
       <c r="U38" t="n">
-        <v>2866.097597267229</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V38" t="n">
-        <v>2535.034709923658</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W38" t="n">
-        <v>2182.266054653544</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X38" t="n">
-        <v>1808.800296392464</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y38" t="n">
-        <v>1636.597933493125</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>509.7358901245717</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C40" t="n">
-        <v>509.7358901245717</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D40" t="n">
-        <v>359.619250712236</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E40" t="n">
-        <v>359.619250712236</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
         <v>66.51211643218342</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1791.722545283323</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U40" t="n">
-        <v>1502.619678408967</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V40" t="n">
-        <v>1247.93519020308</v>
+        <v>1283.366468251177</v>
       </c>
       <c r="W40" t="n">
-        <v>958.5180201661192</v>
+        <v>993.9492982142167</v>
       </c>
       <c r="X40" t="n">
-        <v>730.5284692681018</v>
+        <v>765.9597473161994</v>
       </c>
       <c r="Y40" t="n">
-        <v>509.7358901245717</v>
+        <v>545.1671681726692</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1381.278680221567</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C41" t="n">
-        <v>1381.278680221567</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D41" t="n">
-        <v>1023.012981614817</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E41" t="n">
-        <v>637.2247290165724</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F41" t="n">
-        <v>637.2247290165724</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G41" t="n">
-        <v>222.1522788615688</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
         <v>108.5090151927147</v>
@@ -7438,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V41" t="n">
-        <v>2884.252265792695</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W41" t="n">
-        <v>2531.48361052258</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X41" t="n">
-        <v>2158.017852261501</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y41" t="n">
-        <v>1767.878520285689</v>
+        <v>1632.511388127729</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>678.6720730524786</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="C43" t="n">
-        <v>509.7358901245717</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D43" t="n">
-        <v>359.619250712236</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E43" t="n">
-        <v>359.619250712236</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218342</v>
@@ -7596,25 +7596,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1705.527932658019</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U43" t="n">
-        <v>1416.425065783662</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V43" t="n">
-        <v>1161.740577577775</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W43" t="n">
-        <v>872.3234075408147</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X43" t="n">
-        <v>872.3234075408147</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y43" t="n">
-        <v>860.3205378827183</v>
+        <v>542.9636223427266</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1458.811090838974</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C44" t="n">
-        <v>1458.811090838974</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.811090838974</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E44" t="n">
-        <v>1073.02283824073</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F44" t="n">
-        <v>662.0369334511224</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
@@ -7648,10 +7648,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410102</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V44" t="n">
-        <v>2961.784676410102</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W44" t="n">
-        <v>2609.016021139988</v>
+        <v>2786.802863794138</v>
       </c>
       <c r="X44" t="n">
-        <v>2235.550262878908</v>
+        <v>2413.337105533058</v>
       </c>
       <c r="Y44" t="n">
-        <v>1845.410930903096</v>
+        <v>2023.197773557246</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7839,19 +7839,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1224.739181610489</v>
+        <v>1409.980552474725</v>
       </c>
       <c r="V46" t="n">
-        <v>970.0546934046018</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W46" t="n">
-        <v>680.6375233676413</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X46" t="n">
-        <v>452.6479724696239</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y46" t="n">
-        <v>235.4482993600903</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.838410408413296</v>
+        <v>1.83841040841321</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>213.6895336228001</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7993,7 +7993,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>270.344302314381</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>20.10287086406338</v>
+        <v>20.10287086406333</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>157.847287856306</v>
       </c>
       <c r="Q3" t="n">
-        <v>157.8472878563064</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>142.5090138658256</v>
       </c>
       <c r="O5" t="n">
-        <v>110.0452703542099</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>294.5961368238067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>186.210655919719</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>211.0329012241563</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>84.94186588374643</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-8.503883084314845e-16</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>122.6394762633961</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>24.96523205584583</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23424,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>8.45785289965491</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>16.14213605696597</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>236.6821999505462</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,10 +23554,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>316.8613043470235</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>135.3238162714494</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>25.82611218385676</v>
       </c>
     </row>
     <row r="17">
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>268.8242079902134</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>82.87935969080439</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.86786452413617</v>
+        <v>148.3112548256376</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23974,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24028,10 +24028,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>278.2595096434338</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>77.4372867875345</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>17.87775666090994</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>73.85778156328823</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>171.5769895179244</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>247.8088504089319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>23.96681889249686</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>2.120792006099407</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>143.604143228483</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>79.45734180556121</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>61.35304109311575</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>16.14213605696614</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>348.950861224899</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,10 +24736,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>195.7713030716943</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>34.70948605375852</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>174.4421119839129</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>213.1539192908504</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>361.4289768267532</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>85.51783882994246</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>15.17841787214201</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>38.35427783879976</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>8.597420925564279</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>34.45276913823317</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25365,10 +25365,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.10750358912654</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,13 +25399,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>343.4505891785439</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>215.7575993857075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25566,7 +25566,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25599,16 +25599,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>85.33266649905127</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>90.62970782194068</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>182.1009333551548</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>7.793949334345427</v>
       </c>
     </row>
     <row r="42">
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25836,10 +25836,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>206.7018123905793</v>
+        <v>88.44819745029753</v>
       </c>
     </row>
     <row r="44">
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>157.5368509649502</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>347.4962690902858</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>183.3889571555939</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.55697697365656</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>808052.5661967993</v>
+        <v>808052.5661967994</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>808052.5661967995</v>
+        <v>808052.5661967993</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>808052.5661967993</v>
+        <v>808052.5661967994</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>808052.5661967993</v>
+        <v>808052.5661967994</v>
       </c>
     </row>
     <row r="14">
@@ -26316,37 +26316,37 @@
         <v>472099.0176719627</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719627</v>
+        <v>472099.0176719628</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
+        <v>392146.6638165589</v>
+      </c>
+      <c r="F2" t="n">
+        <v>392146.6638165589</v>
+      </c>
+      <c r="G2" t="n">
+        <v>392146.6638165589</v>
+      </c>
+      <c r="H2" t="n">
         <v>392146.663816559</v>
       </c>
-      <c r="F2" t="n">
-        <v>392146.6638165591</v>
-      </c>
-      <c r="G2" t="n">
-        <v>392146.663816559</v>
-      </c>
-      <c r="H2" t="n">
-        <v>392146.6638165591</v>
-      </c>
       <c r="I2" t="n">
-        <v>392146.6638165589</v>
+        <v>392146.6638165588</v>
       </c>
       <c r="J2" t="n">
-        <v>392146.6638165589</v>
+        <v>392146.6638165588</v>
       </c>
       <c r="K2" t="n">
         <v>392146.663816559</v>
       </c>
       <c r="L2" t="n">
-        <v>392146.6638165589</v>
+        <v>392146.663816559</v>
       </c>
       <c r="M2" t="n">
-        <v>392146.6638165589</v>
+        <v>392146.663816559</v>
       </c>
       <c r="N2" t="n">
         <v>392146.663816559</v>
@@ -26355,7 +26355,7 @@
         <v>392146.6638165589</v>
       </c>
       <c r="P2" t="n">
-        <v>392146.663816559</v>
+        <v>392146.6638165588</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720788.9028693144</v>
+        <v>720788.9028693147</v>
       </c>
       <c r="C3" t="n">
-        <v>62149.06470476067</v>
+        <v>62149.06470476047</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230266</v>
+        <v>291685.0095230265</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171909</v>
+        <v>182072.9798171908</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341494</v>
+        <v>47552.26579341491</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
+        <v>7330.627242042245</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7330.627242042245</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7330.627242042245</v>
+      </c>
+      <c r="H4" t="n">
         <v>7330.627242042234</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7330.627242042234</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7330.627242042234</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7330.627242042245</v>
       </c>
       <c r="I4" t="n">
         <v>7330.627242042245</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84025.0753307314</v>
+        <v>84025.07533073143</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905216</v>
+        <v>85512.93677905218</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="H5" t="n">
         <v>74306.34056139331</v>
-      </c>
-      <c r="H5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-544564.0178056154</v>
+        <v>-544564.0178056158</v>
       </c>
       <c r="C6" t="n">
-        <v>126124.3815279975</v>
+        <v>126124.3815279978</v>
       </c>
       <c r="D6" t="n">
-        <v>-45637.6278376526</v>
+        <v>-45637.62783765249</v>
       </c>
       <c r="E6" t="n">
-        <v>124960.5268978715</v>
+        <v>128089.0972661265</v>
       </c>
       <c r="F6" t="n">
-        <v>307033.5067150625</v>
+        <v>310162.0770833173</v>
       </c>
       <c r="G6" t="n">
-        <v>307033.5067150624</v>
+        <v>310162.0770833173</v>
       </c>
       <c r="H6" t="n">
-        <v>307033.5067150627</v>
+        <v>310162.0770833172</v>
       </c>
       <c r="I6" t="n">
-        <v>307033.5067150623</v>
+        <v>310162.0770833174</v>
       </c>
       <c r="J6" t="n">
-        <v>139428.3289050798</v>
+        <v>142556.8992733346</v>
       </c>
       <c r="K6" t="n">
-        <v>307033.5067150624</v>
+        <v>310162.0770833173</v>
       </c>
       <c r="L6" t="n">
-        <v>307033.5067150623</v>
+        <v>310162.0770833173</v>
       </c>
       <c r="M6" t="n">
-        <v>259481.2409216474</v>
+        <v>262609.8112899024</v>
       </c>
       <c r="N6" t="n">
-        <v>307033.5067150624</v>
+        <v>310162.0770833173</v>
       </c>
       <c r="O6" t="n">
-        <v>307033.5067150623</v>
+        <v>310162.0770833173</v>
       </c>
       <c r="P6" t="n">
-        <v>307033.5067150624</v>
+        <v>310162.0770833172</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>525.2255751857365</v>
+        <v>525.2255751857367</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
+        <v>1089.776700593298</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1089.776700593298</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1089.776700593298</v>
+      </c>
+      <c r="H3" t="n">
         <v>1089.776700593299</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1089.776700593299</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1089.776700593299</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
@@ -26816,10 +26816,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022926</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>525.2255751857365</v>
+        <v>525.2255751857367</v>
       </c>
       <c r="C3" t="n">
-        <v>68.25052515232854</v>
+        <v>68.25052515232832</v>
       </c>
       <c r="D3" t="n">
-        <v>340.5887917794743</v>
+        <v>340.588791779474</v>
       </c>
       <c r="E3" t="n">
         <v>155.7118084757592</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.816623302254</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>166.2134877606213</v>
       </c>
       <c r="G2" t="n">
-        <v>36.9827753079511</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>317.8508165002057</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>160.9051839800344</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.8529351706618</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1767361399376</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>89.60184702953157</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27517,7 +27517,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>89.60184702953063</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27539,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27560,7 +27560,7 @@
         <v>126.9677502925957</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>26.39722440815682</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>6.85298139864814</v>
       </c>
       <c r="R4" t="n">
         <v>134.7070685104703</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>207.5107385676107</v>
       </c>
       <c r="T4" t="n">
         <v>223.8987694227521</v>
@@ -27596,16 +27596,16 @@
         <v>286.2673678245054</v>
       </c>
       <c r="V4" t="n">
-        <v>12.8438212051617</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>54.39218097585288</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>255.4725003629293</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>62.80102189587831</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70.53999045278877</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27706,7 +27706,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>70.53999045278847</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>55.39417408902973</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>152.7120966692326</v>
@@ -27827,13 +27827,13 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>110.988360067945</v>
       </c>
       <c r="U7" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>49.15679284879124</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>88.20459497454857</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193758</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>26.91825368838897</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28067,10 +28067,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.111459598736627</v>
+        <v>2.111459598736628</v>
       </c>
       <c r="H2" t="n">
-        <v>21.62398561556149</v>
+        <v>21.6239856155615</v>
       </c>
       <c r="I2" t="n">
-        <v>81.40204618029391</v>
+        <v>81.40204618029395</v>
       </c>
       <c r="J2" t="n">
-        <v>179.207494118273</v>
+        <v>179.2074941182731</v>
       </c>
       <c r="K2" t="n">
-        <v>268.5855789327945</v>
+        <v>268.5855789327946</v>
       </c>
       <c r="L2" t="n">
-        <v>333.2041606276306</v>
+        <v>333.2041606276308</v>
       </c>
       <c r="M2" t="n">
-        <v>370.7538302666631</v>
+        <v>370.7538302666633</v>
       </c>
       <c r="N2" t="n">
-        <v>376.7530148515736</v>
+        <v>376.7530148515738</v>
       </c>
       <c r="O2" t="n">
-        <v>355.7571884666363</v>
+        <v>355.7571884666364</v>
       </c>
       <c r="P2" t="n">
-        <v>303.6305296228257</v>
+        <v>303.6305296228258</v>
       </c>
       <c r="Q2" t="n">
         <v>228.0138827430702</v>
       </c>
       <c r="R2" t="n">
-        <v>132.6339740191398</v>
+        <v>132.6339740191399</v>
       </c>
       <c r="S2" t="n">
-        <v>48.11488560621095</v>
+        <v>48.11488560621097</v>
       </c>
       <c r="T2" t="n">
-        <v>9.242914393469592</v>
+        <v>9.242914393469595</v>
       </c>
       <c r="U2" t="n">
         <v>0.1689167678989302</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.12973048247498</v>
+        <v>1.129730482474981</v>
       </c>
       <c r="H3" t="n">
         <v>10.91081808074521</v>
       </c>
       <c r="I3" t="n">
-        <v>38.89642231328332</v>
+        <v>38.89642231328334</v>
       </c>
       <c r="J3" t="n">
-        <v>106.7347558026033</v>
+        <v>106.7347558026034</v>
       </c>
       <c r="K3" t="n">
-        <v>182.426698128427</v>
+        <v>182.4266981284271</v>
       </c>
       <c r="L3" t="n">
-        <v>245.2952084865084</v>
+        <v>245.2952084865085</v>
       </c>
       <c r="M3" t="n">
-        <v>286.2479384762264</v>
+        <v>286.2479384762265</v>
       </c>
       <c r="N3" t="n">
-        <v>293.8240696503678</v>
+        <v>293.824069650368</v>
       </c>
       <c r="O3" t="n">
-        <v>268.7916205386853</v>
+        <v>268.7916205386855</v>
       </c>
       <c r="P3" t="n">
-        <v>215.7289725701566</v>
+        <v>215.7289725701567</v>
       </c>
       <c r="Q3" t="n">
         <v>144.20910509628</v>
       </c>
       <c r="R3" t="n">
-        <v>70.14238907857819</v>
+        <v>70.14238907857823</v>
       </c>
       <c r="S3" t="n">
-        <v>20.9842482161471</v>
+        <v>20.98424821614711</v>
       </c>
       <c r="T3" t="n">
-        <v>4.553606637695204</v>
+        <v>4.553606637695206</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07432437384703822</v>
+        <v>0.07432437384703824</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9471280864005083</v>
+        <v>0.9471280864005087</v>
       </c>
       <c r="H4" t="n">
-        <v>8.420829713633616</v>
+        <v>8.420829713633621</v>
       </c>
       <c r="I4" t="n">
-        <v>28.48272463466257</v>
+        <v>28.48272463466258</v>
       </c>
       <c r="J4" t="n">
-        <v>66.96195570851593</v>
+        <v>66.96195570851596</v>
       </c>
       <c r="K4" t="n">
-        <v>110.0390631290772</v>
+        <v>110.0390631290773</v>
       </c>
       <c r="L4" t="n">
         <v>140.8121156817629</v>
       </c>
       <c r="M4" t="n">
-        <v>148.4666326709451</v>
+        <v>148.4666326709452</v>
       </c>
       <c r="N4" t="n">
-        <v>144.9364279852706</v>
+        <v>144.9364279852707</v>
       </c>
       <c r="O4" t="n">
-        <v>133.8722498850464</v>
+        <v>133.8722498850465</v>
       </c>
       <c r="P4" t="n">
         <v>114.550836922476</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.3090618530462</v>
+        <v>79.30906185304625</v>
       </c>
       <c r="R4" t="n">
-        <v>42.58632286669921</v>
+        <v>42.58632286669923</v>
       </c>
       <c r="S4" t="n">
-        <v>16.50585946936158</v>
+        <v>16.50585946936159</v>
       </c>
       <c r="T4" t="n">
-        <v>4.046820005529444</v>
+        <v>4.046820005529446</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05166153198548233</v>
+        <v>0.05166153198548235</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>372.6411404589787</v>
+        <v>262.1852615106142</v>
       </c>
       <c r="L2" t="n">
-        <v>515.0989602080938</v>
+        <v>515.098960208094</v>
       </c>
       <c r="M2" t="n">
-        <v>589.9211305322228</v>
+        <v>589.9211305322231</v>
       </c>
       <c r="N2" t="n">
-        <v>584.6868756669669</v>
+        <v>584.686875666967</v>
       </c>
       <c r="O2" t="n">
-        <v>396.0032793593306</v>
+        <v>506.459158307695</v>
       </c>
       <c r="P2" t="n">
-        <v>72.39753386755615</v>
+        <v>72.39753386755626</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.708192868620671</v>
+        <v>5.708192868620756</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>44.58525915406801</v>
+        <v>44.5852591540681</v>
       </c>
       <c r="L3" t="n">
-        <v>477.5811740100934</v>
+        <v>477.5811740100935</v>
       </c>
       <c r="M3" t="n">
-        <v>609.8189683042079</v>
+        <v>609.8189683042081</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>520.0576953709704</v>
+        <v>520.0576953709706</v>
       </c>
       <c r="P3" t="n">
-        <v>81.75456515582633</v>
+        <v>239.6018530121325</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.0746188665649</v>
+        <v>4.227331010258524</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,19 +34859,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>87.76957130319437</v>
+        <v>87.76957130319441</v>
       </c>
       <c r="L4" t="n">
-        <v>168.402140942079</v>
+        <v>168.4021409420791</v>
       </c>
       <c r="M4" t="n">
-        <v>188.0505096327857</v>
+        <v>188.0505096327858</v>
       </c>
       <c r="N4" t="n">
-        <v>189.0686003644992</v>
+        <v>189.0686003644993</v>
       </c>
       <c r="O4" t="n">
-        <v>158.4573777990861</v>
+        <v>158.4573777990862</v>
       </c>
       <c r="P4" t="n">
         <v>111.8293961873695</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>338.8061986052017</v>
       </c>
       <c r="O5" t="n">
-        <v>281.9331747147751</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>404.3836393766338</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>209.1772631944432</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676411</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>201.422588214601</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.794304803719</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
